--- a/biology/Zoologie/Biswamoyopterus/Biswamoyopterus.xlsx
+++ b/biology/Zoologie/Biswamoyopterus/Biswamoyopterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Biswamoyopterus est un genre de rongeur de la famille des Sciuridae.
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Biswamoyopterus biswasi Saha, 1981.
-Biswamoyopterus laoensis Sanamxay, Douangboubpha, Bumrungsri, Xayavong, Xayaphet, Satasook &amp; Bates 2013[1].</t>
+Biswamoyopterus laoensis Sanamxay, Douangboubpha, Bumrungsri, Xayavong, Xayaphet, Satasook &amp; Bates 2013.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) S. S. Saha, « A new genus and a new species of flying squirrel (Mammalia: Rodentia: Sciuridae) from northeastern India », Bulletin of the Zoological Survey of India, vol. 4, no 3,‎ 1981, p. 331-336
 ↑ (en) Daosavanh Sanamxay et al., « Rediscovery of Biswamoyopterus (Mammalia: Rodentia: Sciuridae: Pteromyini) in Asia, with the description of a new species from Lao PDR », Zootaxa, Magnolia Press, vol. 3686, no 4,‎ 15 juillet 2013, p. 471–481 (ISSN 1175-5334, DOI 10.11646/zootaxa.3686.4.5, lire en ligne [PDF], consulté le 15 juillet 2013)
